--- a/result1_86.xlsx
+++ b/result1_86.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="87">
   <si>
     <t>小麦</t>
   </si>
@@ -142,58 +142,139 @@
     <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
   </si>
   <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 1.2, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 1.2}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 18.0, 'B2': 13.8, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 9.0, 'D2': 6.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.36, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 25.8, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 6.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 3.6, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.36, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 13.2, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 13.5, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 8.1, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.36, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 20.4, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.36, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 7.5, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 8.4, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.36, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.36, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 6.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.36, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 15.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 4.5, 'C2': 0.0, 'C3': 0.0, 'C4': 5.4, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 16.5, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 16.5, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 6.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 1.2, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 7.5, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.36, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.36, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 15.0, 'B10': 0.0, 'B11': 0.0, 'B12': 13.5, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 3.9, 'C3': 0.0, 'C4': 5.4, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 6.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 25.8, 'B7': 16.5, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 6.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 3.6, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.36, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 20.0, 'D3': 0.0, 'D4': 12.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 20.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 30.0, 'D2': 0.0, 'D3': 28.0, 'D4': 0.0, 'D5': 20.0, 'D6': 24.0, 'D7': 22.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 1.2, 'E9': 0.0, 'E10': 1.2, 'E11': 0.0, 'E12': 1.2, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 0.0, 'E3': 0.0, 'E4': 1.2, 'E5': 1.2, 'E6': 1.2, 'E7': 0.0, 'E8': 0.0, 'E9': 1.2, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 1.2, 'E3': 1.2, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 1.2, 'E12': 0.0, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 1.2, 'F2': 1.2, 'F3': 1.2, 'F4': 1.2}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 4.5, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 6.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 20.4, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 12.0, 'D5': 20.0, 'D6': 0.0, 'D7': 0.0, 'D8': 20.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 30.0, 'D2': 20.0, 'D3': 28.0, 'D4': 0.0, 'D5': 0.0, 'D6': 24.0, 'D7': 22.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 1.2, 'E6': 0.0, 'E7': 0.0, 'E8': 1.2, 'E9': 1.2, 'E10': 0.0, 'E11': 1.2, 'E12': 0.0, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 1.2, 'E3': 0.0, 'E4': 1.2, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 1.2, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 0.0, 'E3': 1.2, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 0.0, 'E9': 0.0, 'E10': 1.2, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 1.2, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 1.2, 'F2': 1.2, 'F3': 1.2, 'F4': 1.2}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 16.5, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 16.5, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 8.1, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 18.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 4.5, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 13.8, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 1.2, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 1.2, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
   </si>
   <si>
     <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 13.2, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
   </si>
   <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 16.5, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 8.4, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.36, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.36, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 18.0, 'B2': 13.8, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 8.4, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 16.5, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 6.6, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.36, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 8.1, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 1.2, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 1.2, 'E3': 0.0, 'E4': 1.2, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 1.2, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 1.2, 'E4': 0.0, 'E5': 1.2, 'E6': 1.2, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 1.2, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 1.2, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 1.2, 'F2': 1.2, 'F3': 1.2, 'F4': 1.2}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 20.0, 'D3': 0.0, 'D4': 12.0, 'D5': 20.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 30.0, 'D2': 0.0, 'D3': 28.0, 'D4': 0.0, 'D5': 0.0, 'D6': 24.0, 'D7': 22.0, 'D8': 20.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 1.2, 'E6': 0.0, 'E7': 0.0, 'E8': 1.2, 'E9': 1.2, 'E10': 0.0, 'E11': 1.2, 'E12': 0.0, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 0.0, 'E3': 0.0, 'E4': 1.2, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 1.2, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 1.2, 'E3': 1.2, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 1.2, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 21.6, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 16.5, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 0.0, 'E3': 0.0, 'E4': 1.2, 'E5': 0.0, 'E6': 1.2, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 7.5, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 4.5, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 1.2, 'E6': 0.0, 'E7': 1.2, 'E8': 0.0, 'E9': 1.2, 'E10': 1.2, 'E11': 1.2, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 1.2, 'E3': 1.2, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 1.2, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 1.2, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 0.0, 'F1': 1.2, 'F2': 1.2, 'F3': 1.2, 'F4': 1.2}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 25.8, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 8.4, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 10.5, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 1.2, 'E4': 1.2, 'E5': 0.0, 'E6': 1.2, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 1.2, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 1.2, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 1.2, 'E11': 1.2, 'E12': 0.0, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 1.2, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 1.2, 'E9': 1.2, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 1.2, 'F2': 1.2, 'F3': 1.2, 'F4': 1.2}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 1.2, 'E4': 1.2, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 1.2, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 1.2, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 1.2, 'E7': 0.0, 'E8': 0.0, 'E9': 1.2, 'E10': 0.0, 'E11': 1.2, 'E12': 0.0, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 1.2, 'E6': 0.0, 'E7': 1.2, 'E8': 0.0, 'E9': 0.0, 'E10': 1.2, 'E11': 0.0, 'E12': 0.0, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
+  </si>
+  <si>
+    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 1.2, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 1.2, 'F2': 1.2, 'F3': 1.2, 'F4': 1.2}</t>
   </si>
 </sst>
 </file>
@@ -643,13 +724,13 @@
         <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
@@ -666,16 +747,16 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G5" t="s">
         <v>41</v>
@@ -721,13 +802,13 @@
         <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
         <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="G7" t="s">
         <v>41</v>
@@ -747,13 +828,13 @@
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="G8" t="s">
         <v>41</v>
@@ -770,16 +851,16 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -1027,25 +1108,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1105,25 +1186,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1137,16 +1218,16 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s">
         <v>41</v>
@@ -1163,16 +1244,16 @@
         <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
         <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G24" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s">
         <v>41</v>
@@ -1235,25 +1316,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="F27" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="G27" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s">
-        <v>41</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1391,25 +1472,25 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1417,25 +1498,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="F34" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="G34" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H34" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1443,25 +1524,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F35" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="G35" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1469,25 +1550,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="F36" t="s">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1599,25 +1680,25 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:8">

--- a/result1_86.xlsx
+++ b/result1_86.xlsx
@@ -139,142 +139,142 @@
     <t>菠菜</t>
   </si>
   <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 20.0, 'D3': 0.0, 'D4': 12.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 20.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 30.0, 'D2': 0.0, 'D3': 28.0, 'D4': 0.0, 'D5': 20.0, 'D6': 24.0, 'D7': 22.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 1.2, 'E9': 0.0, 'E10': 1.2, 'E11': 0.0, 'E12': 1.2, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 0.0, 'E3': 0.0, 'E4': 1.2, 'E5': 1.2, 'E6': 1.2, 'E7': 0.0, 'E8': 0.0, 'E9': 1.2, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 1.2, 'E3': 1.2, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 1.2, 'E12': 0.0, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 1.2, 'F2': 1.2, 'F3': 1.2, 'F4': 1.2}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 4.5, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 6.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 20.4, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 12.0, 'D5': 20.0, 'D6': 0.0, 'D7': 0.0, 'D8': 20.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 30.0, 'D2': 20.0, 'D3': 28.0, 'D4': 0.0, 'D5': 0.0, 'D6': 24.0, 'D7': 22.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 1.2, 'E6': 0.0, 'E7': 0.0, 'E8': 1.2, 'E9': 1.2, 'E10': 0.0, 'E11': 1.2, 'E12': 0.0, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 1.2, 'E3': 0.0, 'E4': 1.2, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 1.2, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 0.0, 'E3': 1.2, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 0.0, 'E9': 0.0, 'E10': 1.2, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 1.2, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 1.2, 'F2': 1.2, 'F3': 1.2, 'F4': 1.2}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 16.5, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 16.5, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 8.1, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 18.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 4.5, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 13.8, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 1.2, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 1.2, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 13.2, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 1.2, 'E3': 0.0, 'E4': 1.2, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 1.2, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 1.2, 'E4': 0.0, 'E5': 1.2, 'E6': 1.2, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 1.2, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 1.2, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 1.2, 'F2': 1.2, 'F3': 1.2, 'F4': 1.2}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 20.0, 'D3': 0.0, 'D4': 12.0, 'D5': 20.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 30.0, 'D2': 0.0, 'D3': 28.0, 'D4': 0.0, 'D5': 0.0, 'D6': 24.0, 'D7': 22.0, 'D8': 20.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 1.2, 'E6': 0.0, 'E7': 0.0, 'E8': 1.2, 'E9': 1.2, 'E10': 0.0, 'E11': 1.2, 'E12': 0.0, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 0.0, 'E3': 0.0, 'E4': 1.2, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 1.2, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 1.2, 'E3': 1.2, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 1.2, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 21.6, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 16.5, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 0.0, 'E3': 0.0, 'E4': 1.2, 'E5': 0.0, 'E6': 1.2, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 7.5, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 4.5, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 1.2, 'E6': 0.0, 'E7': 1.2, 'E8': 0.0, 'E9': 1.2, 'E10': 1.2, 'E11': 1.2, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 1.2, 'E3': 1.2, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 1.2, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 1.2, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 0.0, 'F1': 1.2, 'F2': 1.2, 'F3': 1.2, 'F4': 1.2}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 25.8, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 8.4, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 10.5, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 1.2, 'E4': 1.2, 'E5': 0.0, 'E6': 1.2, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 1.2, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 1.2, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 1.2, 'E11': 1.2, 'E12': 0.0, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 1.2, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 1.2, 'E9': 1.2, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 1.2, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 1.2, 'F2': 1.2, 'F3': 1.2, 'F4': 1.2}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 1.2, 'E4': 1.2, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 1.2, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 1.2, 'E13': 0.0, 'E14': 0.0, 'E15': 1.2, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 1.2, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 1.2, 'E7': 0.0, 'E8': 0.0, 'E9': 1.2, 'E10': 0.0, 'E11': 1.2, 'E12': 0.0, 'E13': 0.0, 'E14': 1.2, 'E15': 0.0, 'E16': 0.0, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 0.0, 'E3': 0.0, 'E4': 0.0, 'E5': 1.2, 'E6': 0.0, 'E7': 1.2, 'E8': 0.0, 'E9': 0.0, 'E10': 1.2, 'E11': 0.0, 'E12': 0.0, 'E13': 1.2, 'E14': 0.0, 'E15': 0.0, 'E16': 1.2, 'F1': 0.0, 'F2': 0.0, 'F3': 0.0, 'F4': 0.0}</t>
-  </si>
-  <si>
-    <t>{'A1': 0.0, 'A2': 0.0, 'A3': 0.0, 'A4': 0.0, 'A5': 0.0, 'A6': 0.0, 'B1': 0.0, 'B2': 0.0, 'B3': 0.0, 'B4': 0.0, 'B5': 0.0, 'B6': 0.0, 'B7': 0.0, 'B8': 0.0, 'B9': 0.0, 'B10': 0.0, 'B11': 0.0, 'B12': 0.0, 'B13': 0.0, 'B14': 0.0, 'C1': 0.0, 'C2': 0.0, 'C3': 0.0, 'C4': 0.0, 'C5': 0.0, 'C6': 0.0, 'D1': 0.0, 'D2': 0.0, 'D3': 0.0, 'D4': 0.0, 'D5': 0.0, 'D6': 0.0, 'D7': 0.0, 'D8': 0.0, 'E1': 0.0, 'E2': 1.2, 'E3': 0.0, 'E4': 0.0, 'E5': 0.0, 'E6': 0.0, 'E7': 0.0, 'E8': 0.0, 'E9': 0.0, 'E10': 0.0, 'E11': 0.0, 'E12': 0.0, 'E13': 0.0, 'E14': 0.0, 'E15': 0.0, 'E16': 0.0, 'F1': 1.2, 'F2': 1.2, 'F3': 1.2, 'F4': 1.2}</t>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 20.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 12.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 20.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 30.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 28.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 20.0}, 'D6': {'第二季': 24.0}, 'D7': {'第二季': 22.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 4.5}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 6.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 20.4}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 12.0}, 'D5': {'第二季': 20.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 20.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 30.0}, 'D2': {'第二季': 20.0}, 'D3': {'第二季': 28.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 24.0}, 'D7': {'第二季': 22.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 16.5}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 16.5}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 8.1}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 18.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 4.5}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 13.8}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 13.2}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 20.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 12.0}, 'D5': {'第二季': 20.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 30.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 28.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 24.0}, 'D7': {'第二季': 22.0}, 'D8': {'第二季': 20.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 21.6}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 16.5}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 7.5}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 4.5}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 25.8}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 8.4}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 10.5}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
   </si>
 </sst>
 </file>

--- a/result1_86.xlsx
+++ b/result1_86.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="91">
   <si>
     <t>小麦</t>
   </si>
@@ -142,13 +142,13 @@
     <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
   <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 20.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 12.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 20.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 30.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 28.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 20.0}, 'D6': {'第二季': 24.0}, 'D7': {'第二季': 22.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 12.0}, 'D5': {'第二季': 20.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 20.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 30.0}, 'D2': {'第二季': 20.0}, 'D3': {'第二季': 28.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 24.0}, 'D7': {'第二季': 22.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
   <si>
     <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
@@ -157,24 +157,27 @@
     <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
   <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 4.5}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 6.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 20.4}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 12.0}, 'D5': {'第二季': 20.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 20.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 30.0}, 'D2': {'第二季': 20.0}, 'D3': {'第二季': 28.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 24.0}, 'D7': {'第二季': 22.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 4.5}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 5.4}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 10.5}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 20.4}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 25.8}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 18.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 12.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 16.5}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
   <si>
     <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
   <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 15.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 6.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
     <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
   <si>
@@ -184,97 +187,106 @@
     <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
   </si>
   <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 6.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
     <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 16.5}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 16.5}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
   <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 3.9}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 8.1}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 12.0}, 'D5': {'第二季': 14.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 20.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 18.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 4.5}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 13.8}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 13.5}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 24.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 21.6}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 13.2}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 10.5}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 10.5}, 'A4': {'第二季': 21.6}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 18.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 15.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 6.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 20.4}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 12.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 16.5}, 'B8': {'第二季': 13.2}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 25.8}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 4.5}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 5.4}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
+  </si>
+  <si>
     <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 8.1}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
   <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 18.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 4.5}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 13.8}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 13.2}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 20.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 12.0}, 'D5': {'第二季': 20.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 30.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 28.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 24.0}, 'D7': {'第二季': 22.0}, 'D8': {'第二季': 20.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 21.6}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 16.5}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 7.5}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 4.5}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 25.8}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 8.4}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 10.5}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 4.5}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 16.5}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 24.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 13.8}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 18.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 10.5}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 3.9}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
   <si>
     <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
   <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 16.5}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 13.5}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
     <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
   <si>
     <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
   <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
   </si>
 </sst>
 </file>
@@ -750,7 +762,7 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -759,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>79</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
@@ -811,7 +823,7 @@
         <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
         <v>41</v>
@@ -825,10 +837,10 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -837,7 +849,7 @@
         <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
         <v>41</v>
@@ -851,16 +863,16 @@
         <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" t="s">
-        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -1111,22 +1123,22 @@
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
         <v>42</v>
       </c>
-      <c r="E19" t="s">
-        <v>65</v>
-      </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
         <v>42</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1189,13 +1201,13 @@
         <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
         <v>43</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
         <v>43</v>
@@ -1204,7 +1216,7 @@
         <v>43</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1215,19 +1227,19 @@
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
         <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G23" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H23" t="s">
         <v>41</v>
@@ -1241,19 +1253,19 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
         <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s">
         <v>41</v>
@@ -1322,19 +1334,19 @@
         <v>52</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G27" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="H27" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1475,19 +1487,19 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E33" t="s">
         <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="H33" t="s">
         <v>41</v>
@@ -1501,22 +1513,22 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D34" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="H34" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1527,22 +1539,22 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G35" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1553,22 +1565,22 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E36" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="F36" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:8">

--- a/result1_86.xlsx
+++ b/result1_86.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="95">
   <si>
     <t>小麦</t>
   </si>
@@ -139,154 +139,166 @@
     <t>菠菜</t>
   </si>
   <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 12.0}, 'D5': {'第二季': 20.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 20.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 30.0}, 'D2': {'第二季': 20.0}, 'D3': {'第二季': 28.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 24.0}, 'D7': {'第二季': 22.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 4.5}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 5.4}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 10.5}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 20.4}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 25.8}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 18.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 12.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 16.5}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 15.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 6.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 6.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 16.5}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 16.5}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 3.9}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 8.1}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 12.0}, 'D5': {'第二季': 14.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 20.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 18.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 4.5}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 13.8}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 13.5}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 24.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 21.6}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 13.2}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 10.5}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 10.5}, 'A4': {'第二季': 21.6}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 18.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 15.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 6.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 20.4}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 12.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 16.5}, 'B8': {'第二季': 13.2}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 25.8}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 4.5}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 5.4}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 1.2}, 'F2': {'第二季': 1.2}, 'F3': {'第二季': 1.2}, 'F4': {'第二季': 1.2}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 8.1}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 4.5}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 16.5}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 24.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 13.8}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 18.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 10.5}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 3.9}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 1.2}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 16.5}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 13.5}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 1.2}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 1.2}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 1.2}, 'E9': {'第二季': 1.2}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 1.2}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 1.2}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 1.2}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 1.2}, 'E7': {'第二季': 0.0}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 1.2}, 'E11': {'第二季': 0.0}, 'E12': {'第二季': 0.0}, 'E13': {'第二季': 1.2}, 'E14': {'第二季': 0.0}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 0.0}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
-  </si>
-  <si>
-    <t>{'A1': {'第二季': 0.0}, 'A2': {'第二季': 0.0}, 'A3': {'第二季': 0.0}, 'A4': {'第二季': 0.0}, 'A5': {'第二季': 0.0}, 'A6': {'第二季': 0.0}, 'B1': {'第二季': 0.0}, 'B2': {'第二季': 0.0}, 'B3': {'第二季': 0.0}, 'B4': {'第二季': 0.0}, 'B5': {'第二季': 0.0}, 'B6': {'第二季': 0.0}, 'B7': {'第二季': 0.0}, 'B8': {'第二季': 0.0}, 'B9': {'第二季': 0.0}, 'B10': {'第二季': 0.0}, 'B11': {'第二季': 0.0}, 'B12': {'第二季': 0.0}, 'B13': {'第二季': 0.0}, 'B14': {'第二季': 0.0}, 'C1': {'第二季': 0.0}, 'C2': {'第二季': 0.0}, 'C3': {'第二季': 0.0}, 'C4': {'第二季': 0.0}, 'C5': {'第二季': 0.0}, 'C6': {'第二季': 0.0}, 'D1': {'第二季': 0.0}, 'D2': {'第二季': 0.0}, 'D3': {'第二季': 0.0}, 'D4': {'第二季': 0.0}, 'D5': {'第二季': 0.0}, 'D6': {'第二季': 0.0}, 'D7': {'第二季': 0.0}, 'D8': {'第二季': 0.0}, 'E1': {'第二季': 0.0}, 'E2': {'第二季': 0.0}, 'E3': {'第二季': 0.0}, 'E4': {'第二季': 0.0}, 'E5': {'第二季': 0.0}, 'E6': {'第二季': 0.0}, 'E7': {'第二季': 1.2}, 'E8': {'第二季': 0.0}, 'E9': {'第二季': 0.0}, 'E10': {'第二季': 0.0}, 'E11': {'第二季': 1.2}, 'E12': {'第二季': 1.2}, 'E13': {'第二季': 0.0}, 'E14': {'第二季': 1.2}, 'E15': {'第二季': 0.0}, 'E16': {'第二季': 1.2}, 'F1': {'第二季': 0.0}, 'F2': {'第二季': 0.0}, 'F3': {'第二季': 0.0}, 'F4': {'第二季': 0.0}}</t>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 80.0, '第二季': 0.0}, 'A2': {'第一季': 55.0, '第二季': 0.0}, 'A3': {'第一季': 35.0, '第二季': 0.0}, 'A4': {'第一季': 72.0, '第二季': 0.0}, 'A5': {'第一季': 68.0, '第二季': 0.0}, 'A6': {'第一季': 55.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 40.0, '第二季': 0.0}, 'B4': {'第一季': 28.0, '第二季': 0.0}, 'B5': {'第一季': 25.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 25.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 35.0, '第二季': 0.0}, 'B14': {'第一季': 20.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 60.0, '第二季': 0.0}, 'B2': {'第一季': 46.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 86.0, '第二季': 0.0}, 'B7': {'第一季': 55.0, '第二季': 0.0}, 'B8': {'第一季': 44.0, '第二季': 0.0}, 'B9': {'第一季': 50.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 60.0, '第二季': 0.0}, 'B12': {'第一季': 45.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 15.0, '第二季': 0.0}, 'C2': {'第一季': 13.0, '第二季': 0.0}, 'C3': {'第一季': 15.0, '第二季': 0.0}, 'C4': {'第一季': 18.0, '第二季': 0.0}, 'C5': {'第一季': 27.0, '第二季': 0.0}, 'C6': {'第一季': 20.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 30.0}, 'D2': {'第一季': 0.0, '第二季': 20.0}, 'D3': {'第一季': 0.0, '第二季': 28.0}, 'D4': {'第一季': 0.0, '第二季': 12.0}, 'D5': {'第一季': 0.0, '第二季': 20.0}, 'D6': {'第一季': 0.0, '第二季': 24.0}, 'D7': {'第一季': 0.0, '第二季': 22.0}, 'D8': {'第一季': 0.0, '第二季': 20.0}, 'E1': {'第一季': 1.2, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 1.2, '第二季': 0.0}, 'E7': {'第一季': 1.2, '第二季': 0.0}, 'E8': {'第一季': 1.2, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 1.2, '第二季': 0.0}, 'E12': {'第一季': 1.2, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 1.2, '第二季': 0.0}, 'E16': {'第一季': 1.2, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 30.0, '第二季': 0.0}, 'D2': {'第一季': 20.0, '第二季': 0.0}, 'D3': {'第一季': 28.0, '第二季': 0.0}, 'D4': {'第一季': 12.0, '第二季': 0.0}, 'D5': {'第一季': 20.0, '第二季': 0.0}, 'D6': {'第一季': 24.0, '第二季': 0.0}, 'D7': {'第一季': 22.0, '第二季': 0.0}, 'D8': {'第一季': 20.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 1.2}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 1.2}, 'E8': {'第一季': 0.0, '第二季': 1.2}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 1.2}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 1.2}, 'E13': {'第一季': 0.0, '第二季': 1.2}, 'E14': {'第一季': 0.0, '第二季': 1.2}, 'E15': {'第一季': 0.0, '第二季': 1.2}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 1.2}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 1.2}, 'E4': {'第一季': 0.0, '第二季': 1.2}, 'E5': {'第一季': 0.0, '第二季': 1.2}, 'E6': {'第一季': 0.0, '第二季': 1.2}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 1.2}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 1.2}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 1.2}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 1.2, '第二季': 0.0}, 'E3': {'第一季': 1.2, '第二季': 0.0}, 'E4': {'第一季': 1.2, '第二季': 0.0}, 'E5': {'第一季': 1.2, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 1.2, '第二季': 0.0}, 'E10': {'第一季': 1.2, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 1.2, '第二季': 0.0}, 'E14': {'第一季': 1.2, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 1.2}, 'F2': {'第一季': 0.0, '第二季': 1.2}, 'F3': {'第一季': 0.0, '第二季': 1.2}, 'F4': {'第一季': 0.0, '第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 1.2, '第二季': 0.0}, 'F2': {'第一季': 1.2, '第二季': 0.0}, 'F3': {'第一季': 1.2, '第二季': 0.0}, 'F4': {'第一季': 1.2, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 4.5}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 5.4}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 10.5}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 30.0}, 'D2': {'第一季': 0.0, '第二季': 20.0}, 'D3': {'第一季': 0.0, '第二季': 28.0}, 'D4': {'第一季': 0.0, '第二季': 12.0}, 'D5': {'第一季': 0.0, '第二季': 20.0}, 'D6': {'第一季': 0.0, '第二季': 24.0}, 'D7': {'第一季': 0.0, '第二季': 22.0}, 'D8': {'第一季': 0.0, '第二季': 20.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.84, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.84, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.84, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.84, '第二季': 0.0}, 'E12': {'第一季': 0.84, '第二季': 0.0}, 'E13': {'第一季': 0.84, '第二季': 0.0}, 'E14': {'第一季': 0.84, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.84, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 20.4}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 25.8}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 6.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 30.0, '第二季': 0.0}, 'D2': {'第一季': 20.0, '第二季': 0.0}, 'D3': {'第一季': 28.0, '第二季': 0.0}, 'D4': {'第一季': 12.0, '第二季': 0.0}, 'D5': {'第一季': 20.0, '第二季': 0.0}, 'D6': {'第一季': 24.0, '第二季': 0.0}, 'D7': {'第一季': 22.0, '第二季': 0.0}, 'D8': {'第一季': 20.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 18.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 12.0}, 'B4': {'第一季': 0.0, '第二季': 8.4}, 'B5': {'第一季': 0.0, '第二季': 7.5}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 16.5}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.36, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 1.2}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 1.2}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 1.2}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 1.2}, 'E9': {'第一季': 0.0, '第二季': 1.2}, 'E10': {'第一季': 0.0, '第二季': 1.2}, 'E11': {'第一季': 0.0, '第二季': 1.2}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 1.2}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 15.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 6.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.36, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.36, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.36, '第二季': 0.0}, 'E12': {'第一季': 0.36, '第二季': 0.0}, 'E13': {'第一季': 0.36, '第二季': 0.0}, 'E14': {'第一季': 0.36, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.36, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.36, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 1.2}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 1.2}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 1.2}, 'E7': {'第一季': 0.0, '第二季': 1.2}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 1.2}, 'E13': {'第一季': 0.0, '第二季': 1.2}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 1.2}, 'E16': {'第一季': 0.0, '第二季': 1.2}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 1.2, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 1.2, '第二季': 0.0}, 'E4': {'第一季': 1.2, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 1.2, '第二季': 0.0}, 'E7': {'第一季': 1.2, '第二季': 0.0}, 'E8': {'第一季': 1.2, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 1.2, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 1.2, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 1.2}, 'F2': {'第一季': 0.0, '第二季': 1.2}, 'F3': {'第一季': 0.0, '第二季': 1.2}, 'F4': {'第一季': 0.0, '第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 1.2, '第二季': 0.0}, 'F2': {'第一季': 1.2, '第二季': 0.0}, 'F3': {'第一季': 0.84, '第二季': 0.0}, 'F4': {'第一季': 1.2, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 16.5}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 16.5}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 3.9}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 8.1}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 30.0}, 'D2': {'第一季': 0.0, '第二季': 20.0}, 'D3': {'第一季': 0.0, '第二季': 28.0}, 'D4': {'第一季': 0.0, '第二季': 12.0}, 'D5': {'第一季': 0.0, '第二季': 20.0}, 'D6': {'第一季': 0.0, '第二季': 24.0}, 'D7': {'第一季': 0.0, '第二季': 22.0}, 'D8': {'第一季': 0.0, '第二季': 20.0}, 'E1': {'第一季': 0.84, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.84, '第二季': 0.0}, 'E4': {'第一季': 0.84, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.84, '第二季': 0.0}, 'E7': {'第一季': 0.84, '第二季': 0.0}, 'E8': {'第一季': 0.84, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.84, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.84, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 7.5}, 'B11': {'第一季': 0.0, '第二季': 18.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 4.5}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 30.0, '第二季': 0.0}, 'D2': {'第一季': 20.0, '第二季': 0.0}, 'D3': {'第一季': 28.0, '第二季': 0.0}, 'D4': {'第一季': 12.0, '第二季': 0.0}, 'D5': {'第一季': 20.0, '第二季': 0.0}, 'D6': {'第一季': 24.0, '第二季': 0.0}, 'D7': {'第一季': 22.0, '第二季': 0.0}, 'D8': {'第一季': 20.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 13.8}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 13.5}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.36, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.36, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.36, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 1.2}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 1.2}, 'E6': {'第一季': 0.0, '第二季': 1.2}, 'E7': {'第一季': 0.0, '第二季': 1.2}, 'E8': {'第一季': 0.0, '第二季': 1.2}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 1.2}, 'E12': {'第一季': 0.0, '第二季': 1.2}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 1.2}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 24.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 21.6}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 13.2}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 10.5}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.36, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.36, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.36, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.36, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.36, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.36, '第二季': 0.0}, 'F2': {'第一季': 0.36, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.36, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 1.2}, 'E3': {'第一季': 0.0, '第二季': 1.2}, 'E4': {'第一季': 0.0, '第二季': 1.2}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 1.2}, 'E10': {'第一季': 0.0, '第二季': 1.2}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 1.2}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 1.2}, 'E16': {'第一季': 0.0, '第二季': 1.2}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 1.2, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 1.2, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 1.2, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 1.2, '第二季': 0.0}, 'E12': {'第一季': 1.2, '第二季': 0.0}, 'E13': {'第一季': 1.2, '第二季': 0.0}, 'E14': {'第一季': 1.2, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 1.2, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 1.2}, 'F2': {'第一季': 0.0, '第二季': 1.2}, 'F3': {'第一季': 0.0, '第二季': 1.2}, 'F4': {'第一季': 0.0, '第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.84, '第二季': 0.0}, 'F2': {'第一季': 0.84, '第二季': 0.0}, 'F3': {'第一季': 1.2, '第二季': 0.0}, 'F4': {'第一季': 0.84, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 30.0}, 'D2': {'第一季': 0.0, '第二季': 20.0}, 'D3': {'第一季': 0.0, '第二季': 28.0}, 'D4': {'第一季': 0.0, '第二季': 12.0}, 'D5': {'第一季': 0.0, '第二季': 20.0}, 'D6': {'第一季': 0.0, '第二季': 24.0}, 'D7': {'第一季': 0.0, '第二季': 22.0}, 'D8': {'第一季': 0.0, '第二季': 20.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 1.2, '第二季': 0.0}, 'E3': {'第一季': 1.2, '第二季': 0.0}, 'E4': {'第一季': 1.2, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 1.2, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 1.2, '第二季': 0.0}, 'E13': {'第一季': 1.2, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 1.2, '第二季': 0.0}, 'E16': {'第一季': 1.2, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 1.2}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 1.2}, 'E6': {'第一季': 0.0, '第二季': 1.2}, 'E7': {'第一季': 0.0, '第二季': 1.2}, 'E8': {'第一季': 0.0, '第二季': 1.2}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 1.2}, 'E12': {'第一季': 0.0, '第二季': 1.2}, 'E13': {'第一季': 0.0, '第二季': 1.2}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 1.2}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 1.2}, 'E4': {'第一季': 0.0, '第二季': 1.2}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 1.2}, 'E10': {'第一季': 0.0, '第二季': 1.2}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 1.2}, 'E15': {'第一季': 0.0, '第二季': 1.2}, 'E16': {'第一季': 0.0, '第二季': 1.2}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 1.2, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 1.2, '第二季': 0.0}, 'E6': {'第一季': 1.2, '第二季': 0.0}, 'E7': {'第一季': 1.2, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 1.2, '第二季': 0.0}, 'E10': {'第一季': 1.2, '第二季': 0.0}, 'E11': {'第一季': 1.2, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 1.2, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 1.2}, 'F2': {'第一季': 0.0, '第二季': 1.2}, 'F3': {'第一季': 0.0, '第二季': 1.2}, 'F4': {'第一季': 0.0, '第二季': 1.2}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 10.5}, 'A4': {'第一季': 0.0, '第二季': 21.6}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 18.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 8.4}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 15.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 6.0}, 'D1': {'第一季': 30.0, '第二季': 0.0}, 'D2': {'第一季': 20.0, '第二季': 0.0}, 'D3': {'第一季': 28.0, '第二季': 0.0}, 'D4': {'第一季': 12.0, '第二季': 0.0}, 'D5': {'第一季': 20.0, '第二季': 0.0}, 'D6': {'第一季': 24.0, '第二季': 0.0}, 'D7': {'第一季': 22.0, '第二季': 0.0}, 'D8': {'第一季': 20.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 20.4}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 12.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 16.5}, 'B8': {'第一季': 0.0, '第二季': 13.2}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 6.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.36, '第二季': 0.0}, 'E13': {'第一季': 0.36, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 1.2}, 'E2': {'第一季': 0.0, '第二季': 1.2}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 1.2}, 'E5': {'第一季': 0.0, '第二季': 1.2}, 'E6': {'第一季': 0.0, '第二季': 1.2}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 1.2}, 'E15': {'第一季': 0.0, '第二季': 1.2}, 'E16': {'第一季': 0.0, '第二季': 1.2}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 7.5}, 'B6': {'第一季': 0.0, '第二季': 25.8}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 4.5}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 5.4}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.36, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.36, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.36, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.36, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.36, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.36, '第二季': 0.0}, 'F1': {'第一季': 0.36, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.36, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 1.2}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 1.2}, 'E8': {'第一季': 0.0, '第二季': 1.2}, 'E9': {'第一季': 0.0, '第二季': 1.2}, 'E10': {'第一季': 0.0, '第二季': 1.2}, 'E11': {'第一季': 0.0, '第二季': 1.2}, 'E12': {'第一季': 0.0, '第二季': 1.2}, 'E13': {'第一季': 0.0, '第二季': 1.2}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.84, '第二季': 0.0}, 'F2': {'第一季': 1.2, '第二季': 0.0}, 'F3': {'第一季': 0.84, '第二季': 0.0}, 'F4': {'第一季': 1.2, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 8.1}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 4.5}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 16.5}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 24.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 7.5}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 30.0, '第二季': 0.0}, 'D2': {'第一季': 20.0, '第二季': 0.0}, 'D3': {'第一季': 28.0, '第二季': 0.0}, 'D4': {'第一季': 12.0, '第二季': 0.0}, 'D5': {'第一季': 20.0, '第二季': 0.0}, 'D6': {'第一季': 24.0, '第二季': 0.0}, 'D7': {'第一季': 22.0, '第二季': 0.0}, 'D8': {'第一季': 20.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 13.8}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 18.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 10.5}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 3.9}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.36, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.36, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 1.2}, 'E4': {'第一季': 0.0, '第二季': 1.2}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 1.2}, 'E7': {'第一季': 0.0, '第二季': 1.2}, 'E8': {'第一季': 0.0, '第二季': 1.2}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 1.2}, 'E13': {'第一季': 0.0, '第二季': 1.2}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 1.2}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 16.5}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 13.5}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.36, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.36, '第二季': 0.0}, 'E4': {'第一季': 0.36, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.36, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.36, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.36, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.36, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.36, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 1.2}, 'E2': {'第一季': 0.0, '第二季': 1.2}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 1.2}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 1.2}, 'E10': {'第一季': 0.0, '第二季': 1.2}, 'E11': {'第一季': 0.0, '第二季': 1.2}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 1.2}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 1.2}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 1.2, '第二季': 0.0}, 'F2': {'第一季': 0.84, '第二季': 0.0}, 'F3': {'第一季': 1.2, '第二季': 0.0}, 'F4': {'第一季': 0.84, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 30.0}, 'D2': {'第一季': 0.0, '第二季': 20.0}, 'D3': {'第一季': 0.0, '第二季': 28.0}, 'D4': {'第一季': 0.0, '第二季': 12.0}, 'D5': {'第一季': 0.0, '第二季': 20.0}, 'D6': {'第一季': 0.0, '第二季': 24.0}, 'D7': {'第一季': 0.0, '第二季': 22.0}, 'D8': {'第一季': 0.0, '第二季': 20.0}, 'E1': {'第一季': 1.2, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 1.2, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 1.2, '第二季': 0.0}, 'E8': {'第一季': 1.2, '第二季': 0.0}, 'E9': {'第一季': 1.2, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 1.2, '第二季': 0.0}, 'E14': {'第一季': 1.2, '第二季': 0.0}, 'E15': {'第一季': 1.2, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 0.0, '第二季': 1.2}, 'E3': {'第一季': 0.0, '第二季': 1.2}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 0.0, '第二季': 1.2}, 'E6': {'第一季': 0.0, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 1.2}, 'E9': {'第一季': 0.0, '第二季': 1.2}, 'E10': {'第一季': 0.0, '第二季': 0.0}, 'E11': {'第一季': 0.0, '第二季': 1.2}, 'E12': {'第一季': 0.0, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 1.2}, 'E15': {'第一季': 0.0, '第二季': 1.2}, 'E16': {'第一季': 0.0, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 1.2}, 'E2': {'第一季': 0.0, '第二季': 0.0}, 'E3': {'第一季': 0.0, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 1.2}, 'E5': {'第一季': 0.0, '第二季': 0.0}, 'E6': {'第一季': 0.0, '第二季': 1.2}, 'E7': {'第一季': 0.0, '第二季': 1.2}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 0.0, '第二季': 1.2}, 'E11': {'第一季': 0.0, '第二季': 0.0}, 'E12': {'第一季': 0.0, '第二季': 1.2}, 'E13': {'第一季': 0.0, '第二季': 1.2}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 0.0, '第二季': 1.2}, 'F1': {'第一季': 0.0, '第二季': 0.0}, 'F2': {'第一季': 0.0, '第二季': 0.0}, 'F3': {'第一季': 0.0, '第二季': 0.0}, 'F4': {'第一季': 0.0, '第二季': 0.0}}</t>
+  </si>
+  <si>
+    <t>{'A1': {'第一季': 0.0, '第二季': 0.0}, 'A2': {'第一季': 0.0, '第二季': 0.0}, 'A3': {'第一季': 0.0, '第二季': 0.0}, 'A4': {'第一季': 0.0, '第二季': 0.0}, 'A5': {'第一季': 0.0, '第二季': 0.0}, 'A6': {'第一季': 0.0, '第二季': 0.0}, 'B1': {'第一季': 0.0, '第二季': 0.0}, 'B2': {'第一季': 0.0, '第二季': 0.0}, 'B3': {'第一季': 0.0, '第二季': 0.0}, 'B4': {'第一季': 0.0, '第二季': 0.0}, 'B5': {'第一季': 0.0, '第二季': 0.0}, 'B6': {'第一季': 0.0, '第二季': 0.0}, 'B7': {'第一季': 0.0, '第二季': 0.0}, 'B8': {'第一季': 0.0, '第二季': 0.0}, 'B9': {'第一季': 0.0, '第二季': 0.0}, 'B10': {'第一季': 0.0, '第二季': 0.0}, 'B11': {'第一季': 0.0, '第二季': 0.0}, 'B12': {'第一季': 0.0, '第二季': 0.0}, 'B13': {'第一季': 0.0, '第二季': 0.0}, 'B14': {'第一季': 0.0, '第二季': 0.0}, 'C1': {'第一季': 0.0, '第二季': 0.0}, 'C2': {'第一季': 0.0, '第二季': 0.0}, 'C3': {'第一季': 0.0, '第二季': 0.0}, 'C4': {'第一季': 0.0, '第二季': 0.0}, 'C5': {'第一季': 0.0, '第二季': 0.0}, 'C6': {'第一季': 0.0, '第二季': 0.0}, 'D1': {'第一季': 0.0, '第二季': 0.0}, 'D2': {'第一季': 0.0, '第二季': 0.0}, 'D3': {'第一季': 0.0, '第二季': 0.0}, 'D4': {'第一季': 0.0, '第二季': 0.0}, 'D5': {'第一季': 0.0, '第二季': 0.0}, 'D6': {'第一季': 0.0, '第二季': 0.0}, 'D7': {'第一季': 0.0, '第二季': 0.0}, 'D8': {'第一季': 0.0, '第二季': 0.0}, 'E1': {'第一季': 0.0, '第二季': 0.0}, 'E2': {'第一季': 1.2, '第二季': 0.0}, 'E3': {'第一季': 1.2, '第二季': 0.0}, 'E4': {'第一季': 0.0, '第二季': 0.0}, 'E5': {'第一季': 1.2, '第二季': 0.0}, 'E6': {'第一季': 1.2, '第二季': 0.0}, 'E7': {'第一季': 0.0, '第二季': 0.0}, 'E8': {'第一季': 0.0, '第二季': 0.0}, 'E9': {'第一季': 0.0, '第二季': 0.0}, 'E10': {'第一季': 1.2, '第二季': 0.0}, 'E11': {'第一季': 1.2, '第二季': 0.0}, 'E12': {'第一季': 1.2, '第二季': 0.0}, 'E13': {'第一季': 0.0, '第二季': 0.0}, 'E14': {'第一季': 0.0, '第二季': 0.0}, 'E15': {'第一季': 0.0, '第二季': 0.0}, 'E16': {'第一季': 1.2, '第二季': 0.0}, 'F1': {'第一季': 0.0, '第二季': 1.2}, 'F2': {'第一季': 0.0, '第二季': 1.2}, 'F3': {'第一季': 0.0, '第二季': 1.2}, 'F4': {'第一季': 0.0, '第二季': 1.2}}</t>
   </si>
 </sst>
 </file>
@@ -704,25 +716,25 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -759,10 +771,10 @@
         <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
         <v>41</v>
@@ -771,7 +783,7 @@
         <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s">
         <v>41</v>
@@ -823,7 +835,7 @@
         <v>41</v>
       </c>
       <c r="G7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="H7" t="s">
         <v>41</v>
@@ -837,10 +849,10 @@
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
         <v>41</v>
@@ -849,7 +861,7 @@
         <v>41</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H8" t="s">
         <v>41</v>
@@ -866,13 +878,13 @@
         <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
         <v>41</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
         <v>41</v>
@@ -886,25 +898,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -912,25 +924,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1042,25 +1054,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1120,25 +1132,25 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1198,25 +1210,25 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D22" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="H22" t="s">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1224,25 +1236,25 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F23" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H23" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1253,19 +1265,19 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D24" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
         <v>41</v>
@@ -1328,25 +1340,25 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F27" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H27" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1487,19 +1499,19 @@
         <v>41</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D33" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E33" t="s">
         <v>41</v>
       </c>
       <c r="F33" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s">
         <v>41</v>
@@ -1510,25 +1522,25 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F34" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1536,25 +1548,25 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="G35" t="s">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="H35" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1562,25 +1574,25 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="H36" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1640,25 +1652,25 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D39" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F39" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="G39" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="H39" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
